--- a/Wizualizator krzywej grzewczej-pogodowej/Wizualizator krzywej.xlsx
+++ b/Wizualizator krzywej grzewczej-pogodowej/Wizualizator krzywej.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\_STM32cubeIDE\Wizualizator krzywej grzewczej-pogodowej\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010CB0E8-96F4-46E0-8638-7D2ECB057695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E565B-E075-48C9-9E7A-7927FB96AD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9D0AADB3-74DC-4F77-8AEB-DF71CD4AFF43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D0AADB3-74DC-4F77-8AEB-DF71CD4AFF43}"/>
   </bookViews>
   <sheets>
     <sheet name="Krzywa grzewcza" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Krzywa grzewcza/pogodowa</t>
   </si>
@@ -74,9 +71,6 @@
     <t>Ekstrapol. dolna</t>
   </si>
   <si>
-    <t>NIE</t>
-  </si>
-  <si>
     <t>Ekstrapol. górna</t>
   </si>
   <si>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>Temp. zadana (obliczona)</t>
+  </si>
+  <si>
+    <t>TAK</t>
+  </si>
+  <si>
+    <t>NIE</t>
   </si>
 </sst>
 </file>
@@ -188,15 +188,9 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -214,6 +208,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,97 +752,97 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>25</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>25</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>25</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>25</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>25</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>25</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>25</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>25</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,725 +1744,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="General"/>
-      <sheetName val="CANbus"/>
-      <sheetName val="7kW ODU_fan"/>
-      <sheetName val="OUT frame"/>
-      <sheetName val="Kapuścik"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Sheet9"/>
-      <sheetName val="Flow calibration"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="from ODU Rx 31 10"/>
-      <sheetName val="from ODU Rx 32 10"/>
-      <sheetName val="from IDU (err) Tx 32 20"/>
-      <sheetName val="from IDU Tx 31 20"/>
-      <sheetName val="MENU &amp; Features"/>
-      <sheetName val="MENU"/>
-      <sheetName val="CRC check"/>
-      <sheetName val="init"/>
-      <sheetName val="MQTT"/>
-      <sheetName val="Settings"/>
-      <sheetName val="INIT @ ODU test"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Heaters"/>
-      <sheetName val="Krzywa grzewcza"/>
-      <sheetName val="Sheet6"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Sheet7"/>
-      <sheetName val="ODU Errors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23">
-        <row r="2">
-          <cell r="E2">
-            <v>-40</v>
-          </cell>
-          <cell r="J2">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>-39</v>
-          </cell>
-          <cell r="J3">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>-38</v>
-          </cell>
-          <cell r="J4">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>-37</v>
-          </cell>
-          <cell r="J5">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>-36</v>
-          </cell>
-          <cell r="J6">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>-35</v>
-          </cell>
-          <cell r="J7">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>-34</v>
-          </cell>
-          <cell r="J8">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>-33</v>
-          </cell>
-          <cell r="J9">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>-32</v>
-          </cell>
-          <cell r="J10">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>-31</v>
-          </cell>
-          <cell r="J11">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>-30</v>
-          </cell>
-          <cell r="J12">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>-29</v>
-          </cell>
-          <cell r="J13">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>-28</v>
-          </cell>
-          <cell r="J14">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>-27</v>
-          </cell>
-          <cell r="J15">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>-26</v>
-          </cell>
-          <cell r="J16">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>-25</v>
-          </cell>
-          <cell r="J17">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>-24</v>
-          </cell>
-          <cell r="J18">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>-23</v>
-          </cell>
-          <cell r="J19">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>-22</v>
-          </cell>
-          <cell r="J20">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>-21</v>
-          </cell>
-          <cell r="J21">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>-20</v>
-          </cell>
-          <cell r="J22">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>-19</v>
-          </cell>
-          <cell r="J23">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>-18</v>
-          </cell>
-          <cell r="J24">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>-17</v>
-          </cell>
-          <cell r="J25">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>-16</v>
-          </cell>
-          <cell r="J26">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>-15</v>
-          </cell>
-          <cell r="J27">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>-14</v>
-          </cell>
-          <cell r="J28">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>-13</v>
-          </cell>
-          <cell r="J29">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>-12</v>
-          </cell>
-          <cell r="J30">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>-11</v>
-          </cell>
-          <cell r="J31">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>-10</v>
-          </cell>
-          <cell r="J32">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>-9</v>
-          </cell>
-          <cell r="J33">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>-8</v>
-          </cell>
-          <cell r="J34">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>-7</v>
-          </cell>
-          <cell r="J35">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>-6</v>
-          </cell>
-          <cell r="J36">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>-5</v>
-          </cell>
-          <cell r="J37">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38">
-            <v>-4</v>
-          </cell>
-          <cell r="J38">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>-3</v>
-          </cell>
-          <cell r="J39">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40">
-            <v>-2</v>
-          </cell>
-          <cell r="J40">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>-1</v>
-          </cell>
-          <cell r="J41">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42">
-            <v>0</v>
-          </cell>
-          <cell r="J42">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43">
-            <v>1</v>
-          </cell>
-          <cell r="J43">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>2</v>
-          </cell>
-          <cell r="J44">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>3</v>
-          </cell>
-          <cell r="J45">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46">
-            <v>4</v>
-          </cell>
-          <cell r="J46">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47">
-            <v>5</v>
-          </cell>
-          <cell r="J47">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>6</v>
-          </cell>
-          <cell r="J48">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49">
-            <v>7</v>
-          </cell>
-          <cell r="J49">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>8</v>
-          </cell>
-          <cell r="J50">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>9</v>
-          </cell>
-          <cell r="J51">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>10</v>
-          </cell>
-          <cell r="J52">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>11</v>
-          </cell>
-          <cell r="J53">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>12</v>
-          </cell>
-          <cell r="J54">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>13</v>
-          </cell>
-          <cell r="J55">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>14</v>
-          </cell>
-          <cell r="J56">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>15</v>
-          </cell>
-          <cell r="J57">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>16</v>
-          </cell>
-          <cell r="J58">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59">
-            <v>17</v>
-          </cell>
-          <cell r="J59">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60">
-            <v>18</v>
-          </cell>
-          <cell r="J60">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61">
-            <v>19</v>
-          </cell>
-          <cell r="J61">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62">
-            <v>20</v>
-          </cell>
-          <cell r="J62">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63">
-            <v>21</v>
-          </cell>
-          <cell r="J63">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64">
-            <v>22</v>
-          </cell>
-          <cell r="J64">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65">
-            <v>23</v>
-          </cell>
-          <cell r="J65">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66">
-            <v>24</v>
-          </cell>
-          <cell r="J66">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67">
-            <v>25</v>
-          </cell>
-          <cell r="J67">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68">
-            <v>26</v>
-          </cell>
-          <cell r="J68">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69">
-            <v>27</v>
-          </cell>
-          <cell r="J69">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70">
-            <v>28</v>
-          </cell>
-          <cell r="J70">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71">
-            <v>29</v>
-          </cell>
-          <cell r="J71">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72">
-            <v>30</v>
-          </cell>
-          <cell r="J72">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="E73">
-            <v>31</v>
-          </cell>
-          <cell r="J73">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="E74">
-            <v>32</v>
-          </cell>
-          <cell r="J74">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="E75">
-            <v>33</v>
-          </cell>
-          <cell r="J75">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="E76">
-            <v>34</v>
-          </cell>
-          <cell r="J76">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="E77">
-            <v>35</v>
-          </cell>
-          <cell r="J77">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="E78">
-            <v>36</v>
-          </cell>
-          <cell r="J78">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="E79">
-            <v>37</v>
-          </cell>
-          <cell r="J79">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="E80">
-            <v>38</v>
-          </cell>
-          <cell r="J80">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="E81">
-            <v>39</v>
-          </cell>
-          <cell r="J81">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="E82">
-            <v>40</v>
-          </cell>
-          <cell r="J82">
-            <v>25</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2763,7 +2044,7 @@
   <dimension ref="A1:M1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2782,15 +2063,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2803,11 +2084,11 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <f>IF($B$12="NIE",IF(E2&lt;=$B$7,$B$8))</f>
+        <f>IF($B$12="NIE",IF(E2&lt;=$B$7,$B$8+$B$11))</f>
         <v>36</v>
       </c>
       <c r="H2" t="b">
-        <f>IF($B$13="NIE",IF(E2&gt;=$B$9,$B$10))</f>
+        <f>IF($B$13="NIE",IF(E2&gt;=$B$9,$B$10+$B$11))</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -2820,7 +2101,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="E3">
         <v>-39</v>
       </c>
@@ -2829,11 +2110,11 @@
         <v>52</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">IF($B$12="NIE",IF(E3&lt;=$B$7,$B$8))</f>
+        <f t="shared" ref="G3:G66" si="1">IF($B$12="NIE",IF(E3&lt;=$B$7,$B$8+$B$11))</f>
         <v>36</v>
       </c>
       <c r="H3" t="b">
-        <f t="shared" ref="H3:H66" si="2">IF($B$13="NIE",IF(E3&gt;=$B$9,$B$10))</f>
+        <f t="shared" ref="H3:H66" si="2">IF($B$13="NIE",IF(E3&gt;=$B$9,$B$10+$B$11))</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -2896,12 +2177,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="1"/>
       <c r="E6">
         <v>-36</v>
       </c>
@@ -2927,16 +2208,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>-10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
       <c r="E7">
         <v>-35</v>
       </c>
@@ -2962,16 +2243,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="4">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
       <c r="E8">
         <v>-34</v>
       </c>
@@ -2997,16 +2278,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9">
         <v>-33</v>
       </c>
@@ -3032,16 +2313,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
       <c r="E10">
         <v>-32</v>
       </c>
@@ -3067,13 +2348,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E11">
@@ -3101,11 +2382,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E12">
         <v>-30</v>
@@ -3132,11 +2413,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E13">
         <v>-29</v>
@@ -3163,7 +2444,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="3"/>
       <c r="E14">
         <v>-28</v>
       </c>
@@ -3189,11 +2470,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="E15">
         <v>-27</v>
       </c>
@@ -3219,13 +2500,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="4">
+        <v>-8</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E16">
@@ -3253,8 +2534,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="E17">
         <v>-25</v>
       </c>
@@ -3280,11 +2561,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="E18">
         <v>-24</v>
       </c>
@@ -3310,15 +2591,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7">
         <f>(B10-B8)/(B9-B7)</f>
         <v>-0.55000000000000004</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19">
         <v>-23</v>
       </c>
@@ -3344,15 +2625,15 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7">
         <f>B8-B19*B7</f>
         <v>30.5</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20">
         <v>-22</v>
       </c>
@@ -3378,9 +2659,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21">
         <v>-21</v>
       </c>
@@ -3406,17 +2687,17 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
         <f>ROUND((B19*B16+B20+0.5),0)+B11</f>
-        <v>29</v>
-      </c>
-      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="3"/>
       <c r="E22">
         <v>-20</v>
       </c>
@@ -3442,8 +2723,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23">
         <v>-19</v>
       </c>
@@ -3469,8 +2750,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24">
         <v>-18</v>
       </c>
@@ -3569,7 +2850,7 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28">
@@ -3595,7 +2876,7 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29">
@@ -3698,8 +2979,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="E33">
         <v>-9</v>
       </c>
@@ -3725,7 +3006,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="3"/>
       <c r="E34">
         <v>-8</v>
       </c>
@@ -3751,8 +3032,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="E35">
         <v>-7</v>
       </c>
@@ -3778,7 +3059,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="3"/>
       <c r="E36">
         <v>-6</v>
       </c>
@@ -3804,7 +3085,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="3"/>
       <c r="E37">
         <v>-5</v>
       </c>
@@ -4030,7 +3311,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
       <c r="E46">
         <v>4</v>
       </c>
@@ -4056,7 +3337,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
       <c r="E47">
         <v>5</v>
       </c>
@@ -4082,7 +3363,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
       <c r="E48">
         <v>6</v>
       </c>
@@ -4108,7 +3389,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="9"/>
       <c r="E49">
         <v>7</v>
       </c>
@@ -4195,9 +3476,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H52" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
@@ -4205,7 +3486,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,9 +3501,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H53" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
@@ -4245,9 +3526,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H54" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
@@ -4255,7 +3536,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,9 +3551,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
@@ -4280,7 +3561,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4295,9 +3576,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
@@ -4305,7 +3586,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4320,9 +3601,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
@@ -4330,7 +3611,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,9 +3626,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H58" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
@@ -4355,7 +3636,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,9 +3651,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H59" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
@@ -4380,7 +3661,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4395,9 +3676,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H60" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
@@ -4405,7 +3686,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4420,9 +3701,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H61" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
@@ -4430,7 +3711,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4445,9 +3726,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H62" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
@@ -4455,7 +3736,7 @@
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4470,9 +3751,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H63" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I63">
         <f t="shared" si="3"/>
@@ -4480,7 +3761,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4495,9 +3776,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H64" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I64">
         <f t="shared" si="3"/>
@@ -4505,7 +3786,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,9 +3801,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H65" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I65">
         <f t="shared" si="3"/>
@@ -4530,7 +3811,7 @@
       </c>
       <c r="J65">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4545,9 +3826,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H66" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I66">
         <f t="shared" si="3"/>
@@ -4555,7 +3836,7 @@
       </c>
       <c r="J66">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4567,12 +3848,12 @@
         <v>17</v>
       </c>
       <c r="G67" t="b">
-        <f t="shared" ref="G67:G82" si="6">IF($B$12="NIE",IF(E67&lt;=$B$7,$B$8))</f>
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H82" si="7">IF($B$13="NIE",IF(E67&gt;=$B$9,$B$10))</f>
-        <v>25</v>
+        <f t="shared" ref="G67:G82" si="6">IF($B$12="NIE",IF(E67&lt;=$B$7,$B$8+$B$11))</f>
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <f t="shared" ref="H67:H82" si="7">IF($B$13="NIE",IF(E67&gt;=$B$9,$B$10+$B$11))</f>
+        <v>0</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I82" si="8">IF(G67=FALSE,F67,G67)</f>
@@ -4580,7 +3861,7 @@
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J82" si="9">IF(H67=FALSE,I67,H67)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4595,9 +3876,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <f t="shared" si="8"/>
@@ -4605,7 +3886,7 @@
       </c>
       <c r="J68">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4620,9 +3901,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <f t="shared" si="8"/>
@@ -4630,7 +3911,7 @@
       </c>
       <c r="J69">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,9 +3926,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <f t="shared" si="8"/>
@@ -4655,7 +3936,7 @@
       </c>
       <c r="J70">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4670,9 +3951,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <f t="shared" si="8"/>
@@ -4680,7 +3961,7 @@
       </c>
       <c r="J71">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4695,9 +3976,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <f t="shared" si="8"/>
@@ -4705,7 +3986,7 @@
       </c>
       <c r="J72">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4720,9 +4001,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <f t="shared" si="8"/>
@@ -4730,7 +4011,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4745,9 +4026,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <f t="shared" si="8"/>
@@ -4755,7 +4036,7 @@
       </c>
       <c r="J74">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4770,9 +4051,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <f t="shared" si="8"/>
@@ -4780,7 +4061,7 @@
       </c>
       <c r="J75">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4795,9 +4076,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <f t="shared" si="8"/>
@@ -4805,7 +4086,7 @@
       </c>
       <c r="J76">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4820,9 +4101,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <f t="shared" si="8"/>
@@ -4830,7 +4111,7 @@
       </c>
       <c r="J77">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4845,9 +4126,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <f t="shared" si="8"/>
@@ -4855,7 +4136,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4870,9 +4151,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <f t="shared" si="8"/>
@@ -4880,7 +4161,7 @@
       </c>
       <c r="J79">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4895,9 +4176,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <f t="shared" si="8"/>
@@ -4905,7 +4186,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4920,9 +4201,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <f t="shared" si="8"/>
@@ -4930,7 +4211,7 @@
       </c>
       <c r="J81">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4945,9 +4226,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="b">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <f t="shared" si="8"/>
@@ -4955,7 +4236,7 @@
       </c>
       <c r="J82">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
